--- a/analysis/ASCA/ASCA_shellytest/ACSAr_temp_loadings.xlsx
+++ b/analysis/ASCA/ASCA_shellytest/ACSAr_temp_loadings.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,13 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shelly/Documents/GitHub/OysterSeedProject/analysis/ASCA/ASCA_shellytest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5C58B1CA-099B-CD42-87F1-F4213F0FBAE4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC578184-3858-CA4E-B306-89FE18242B22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ACSAr_temp_loadings" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">ACSAr_temp_loadings!$E$2:$E$173</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">ACSAr_temp_loadings!$F$2:$F$173</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">ACSAr_temp_loadings!$E$2:$E$173</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">ACSAr_temp_loadings!$F$2:$F$173</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">ACSAr_temp_loadings!$E$2:$E$173</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">ACSAr_temp_loadings!$F$2:$F$173</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -24043,7 +24051,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -24596,41 +24604,11 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -24639,8 +24617,11 @@
             <c:v>pos</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="0" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -24660,7 +24641,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:strRef>
               <c:f>ACSAr_temp_loadings!$A$2:$A$172</c:f>
               <c:strCache>
@@ -25180,8 +25161,8 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>ACSAr_temp_loadings!$B$2:$B$172</c:f>
               <c:numCache>
@@ -25702,7 +25683,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -25718,30 +25699,19 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="13873792"/>
         <c:axId val="13875472"/>
-      </c:scatterChart>
-      <c:valAx>
+      </c:lineChart>
+      <c:catAx>
         <c:axId val="13873792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -25780,8 +25750,11 @@
         </c:txPr>
         <c:crossAx val="13875472"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="13875472"/>
         <c:scaling>
@@ -25803,6 +25776,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>PC1</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> loadings value</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -25842,7 +25875,7 @@
         </c:txPr>
         <c:crossAx val="13873792"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -25910,41 +25943,11 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -25953,8 +25956,11 @@
             <c:v>neg</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="6350" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -25974,7 +25980,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:xVal>
+          <c:cat>
             <c:strRef>
               <c:f>ACSAr_temp_loadings!$E$2:$E$173</c:f>
               <c:strCache>
@@ -26497,8 +26503,8 @@
                 </c:pt>
               </c:strCache>
             </c:strRef>
-          </c:xVal>
-          <c:yVal>
+          </c:cat>
+          <c:val>
             <c:numRef>
               <c:f>ACSAr_temp_loadings!$F$2:$F$173</c:f>
               <c:numCache>
@@ -27022,7 +27028,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
+          </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -27038,33 +27044,22 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
         <c:axId val="13873792"/>
         <c:axId val="13875472"/>
-      </c:scatterChart>
-      <c:valAx>
+      </c:lineChart>
+      <c:catAx>
         <c:axId val="13873792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -27100,8 +27095,11 @@
         </c:txPr>
         <c:crossAx val="13875472"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="1"/>
+      </c:catAx>
       <c:valAx>
         <c:axId val="13875472"/>
         <c:scaling>
@@ -27123,6 +27121,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>PC1 loadings &lt;=</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> 0</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -27162,7 +27220,7 @@
         </c:txPr>
         <c:crossAx val="13873792"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -28333,14 +28391,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>692150</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>827616</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>372534</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -28370,14 +28428,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>203199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>819150</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>423334</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -28703,11 +28761,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4072"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/analysis/ASCA/ASCA_shellytest/ACSAr_temp_loadings.xlsx
+++ b/analysis/ASCA/ASCA_shellytest/ACSAr_temp_loadings.xlsx
@@ -8,21 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Shelly/Documents/GitHub/OysterSeedProject/analysis/ASCA/ASCA_shellytest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC578184-3858-CA4E-B306-89FE18242B22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9C1FC5-4422-6046-BE80-9B2365C958DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ACSAr_temp_loadings" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">ACSAr_temp_loadings!$E$2:$E$173</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">ACSAr_temp_loadings!$F$2:$F$173</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">ACSAr_temp_loadings!$E$2:$E$173</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">ACSAr_temp_loadings!$F$2:$F$173</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">ACSAr_temp_loadings!$E$2:$E$173</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">ACSAr_temp_loadings!$F$2:$F$173</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -25801,7 +25793,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> loadings value</a:t>
+                  <a:t> loadings &gt; 0</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -27142,7 +27134,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>PC1 loadings &lt;=</a:t>
+                  <a:t>PC1 loadings &lt;</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
@@ -28764,8 +28756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G4072"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
